--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandirezze/Documents/GitHub/cs162_project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C07CF-4F79-2C48-8711-912DDDF48DE2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E692F-98D2-A247-A52B-31FB0C4909FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="3620" windowWidth="13560" windowHeight="9740" xr2:uid="{4D30CEE1-22F0-F142-94D7-8797B0C7E02D}"/>
+    <workbookView xWindow="14620" yWindow="600" windowWidth="13380" windowHeight="12100" xr2:uid="{4D30CEE1-22F0-F142-94D7-8797B0C7E02D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Test Case</t>
   </si>
@@ -182,13 +182,46 @@
     <t>Print a confirmation that the ant will not start in a random location, ask for board parameters, ask for ant's starting position, and initialize the ant on the board at the user specified location</t>
   </si>
   <si>
-    <t>Prompts menu selection after program completes</t>
-  </si>
-  <si>
-    <t>Board parameters input validation (very small &amp; large, and floats)</t>
-  </si>
-  <si>
-    <t>(User specified) Ant coordinates input validation (floats and on board's border)</t>
+    <t>Board parameters input validation (very small)</t>
+  </si>
+  <si>
+    <t>Board parameters input validation (very large)</t>
+  </si>
+  <si>
+    <t>Board parameters input validation (floats)</t>
+  </si>
+  <si>
+    <t>(User specified) Ant coordinates input validation (floats)</t>
+  </si>
+  <si>
+    <t>(User specified) Ant coordinates input validation (on board's border)</t>
+  </si>
+  <si>
+    <t>Input = 1</t>
+  </si>
+  <si>
+    <t>Input = 1,000</t>
+  </si>
+  <si>
+    <t>0 &lt; Input &lt; 1</t>
+  </si>
+  <si>
+    <t>Input = 0;
+Input = Columns/Rows</t>
+  </si>
+  <si>
+    <t>Board board = Board(rows, columns);
+rows/columns = input</t>
+  </si>
+  <si>
+    <t>Ant ant = Ant(rand_x, rand_y, board);
+rand_x, rand_y = input</t>
+  </si>
+  <si>
+    <t>Board prints and program executes as expected</t>
+  </si>
+  <si>
+    <t>Program crashes</t>
   </si>
 </sst>
 </file>
@@ -249,6 +282,21 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -267,21 +315,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -296,8 +329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91E0D28D-2FAF-BA41-BD46-B0885AC20B2E}" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E24" xr:uid="{9CEE31C4-537E-784E-B735-C34D597D2EA1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91E0D28D-2FAF-BA41-BD46-B0885AC20B2E}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E26" xr:uid="{9CEE31C4-537E-784E-B735-C34D597D2EA1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -305,11 +338,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{746E146B-0052-854D-908B-92029FDFB4AB}" name="Test Case" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{EE6242AD-F31F-EC43-B235-0A67A7FBC4DE}" name="Input Values" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{06D4B865-992A-4848-B504-3BE4793F5AA1}" name="Driver Functions" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{72DF2831-A6C8-0C47-A4B5-AECB4AA2CFAF}" name="Expected Outcomes" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{30EFC03E-F14F-C64C-A45D-4A0955280E5F}" name="Observed Outcomes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{746E146B-0052-854D-908B-92029FDFB4AB}" name="Test Case" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EE6242AD-F31F-EC43-B235-0A67A7FBC4DE}" name="Input Values" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{06D4B865-992A-4848-B504-3BE4793F5AA1}" name="Driver Functions" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{72DF2831-A6C8-0C47-A4B5-AECB4AA2CFAF}" name="Expected Outcomes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{30EFC03E-F14F-C64C-A45D-4A0955280E5F}" name="Observed Outcomes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,17 +645,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04431965-2B41-9E49-B5B7-8625799C189D}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
@@ -925,19 +958,74 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="85">
+    <row r="22" spans="1:4" ht="68">
       <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="68">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="85">
-      <c r="A23" s="2" t="s">
-        <v>50</v>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="68">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="68">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="85">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandirezze/Documents/GitHub/cs162_project1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42E692F-98D2-A247-A52B-31FB0C4909FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB4A0C7-74A2-A145-AC59-560C0122A630}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14620" yWindow="600" windowWidth="13380" windowHeight="12100" xr2:uid="{4D30CEE1-22F0-F142-94D7-8797B0C7E02D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,21 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>Test Case</t>
   </si>
   <si>
-    <t>Input Values</t>
-  </si>
-  <si>
     <t>Driver Functions</t>
-  </si>
-  <si>
-    <t>Expected Outcomes</t>
-  </si>
-  <si>
-    <t>Observed Outcomes</t>
   </si>
   <si>
     <t>Loops back to the question, prompting the user for input</t>
@@ -82,9 +73,6 @@
 else if(tolower(input) == 'b')</t>
   </si>
   <si>
-    <t>Starts the program</t>
-  </si>
-  <si>
     <t>Quits the program</t>
   </si>
   <si>
@@ -206,10 +194,6 @@
     <t>0 &lt; Input &lt; 1</t>
   </si>
   <si>
-    <t>Input = 0;
-Input = Columns/Rows</t>
-  </si>
-  <si>
     <t>Board board = Board(rows, columns);
 rows/columns = input</t>
   </si>
@@ -221,7 +205,71 @@
     <t>Board prints and program executes as expected</t>
   </si>
   <si>
-    <t>Program crashes</t>
+    <t>Prints feedback more than once</t>
+  </si>
+  <si>
+    <t># of prints = # of chars from input</t>
+  </si>
+  <si>
+    <t>Loops back to the question, prompting the user for input (once)</t>
+  </si>
+  <si>
+    <t>Starts the program;
+Asks if the ant will start in a random location</t>
+  </si>
+  <si>
+    <t>Wrong input (2 or more chars) for ant's random starting location prompt</t>
+  </si>
+  <si>
+    <t>Input = jk, %%</t>
+  </si>
+  <si>
+    <t>Ant steps onto border</t>
+  </si>
+  <si>
+    <t>formatting is funny due to size of board</t>
+  </si>
+  <si>
+    <t>Proceeds to the next input parameter and notifies that the input was wrong; does not prompt the user to re-enter value</t>
+  </si>
+  <si>
+    <t>Ant is placed on the board's border, &amp; segmentation fault (core dumped)</t>
+  </si>
+  <si>
+    <t>1 &lt; Input &lt; 2;
+Assumes: Input is lower than max</t>
+  </si>
+  <si>
+    <t>Input = 0;
+Columns = 0;
+Rows = 0</t>
+  </si>
+  <si>
+    <t>(User specified) Ant coordinates input validation (correctly; on [playable] board - not border)</t>
+  </si>
+  <si>
+    <t>Input: Row = 1; Column = 1;
+Input != 0;
+Input &lt; max(column);
+Input &lt; max(row);</t>
+  </si>
+  <si>
+    <t>Board prints with ant on row/column location based on user-input, and program runs as expected; menu prompts to start program or quit after program completes (ant takes max steps)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Expected Outcome(s)</t>
+  </si>
+  <si>
+    <t>Observed Outcome(s)</t>
+  </si>
+  <si>
+    <t>Input Value(s)</t>
+  </si>
+  <si>
+    <t>Observed Outcome(s) with Bug Fixes</t>
   </si>
 </sst>
 </file>
@@ -277,7 +325,274 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -329,22 +644,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91E0D28D-2FAF-BA41-BD46-B0885AC20B2E}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E26" xr:uid="{9CEE31C4-537E-784E-B735-C34D597D2EA1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91E0D28D-2FAF-BA41-BD46-B0885AC20B2E}" name="Table1" displayName="Table1" ref="A1:G28" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:G28" xr:uid="{9CEE31C4-537E-784E-B735-C34D597D2EA1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{746E146B-0052-854D-908B-92029FDFB4AB}" name="Test Case" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EE6242AD-F31F-EC43-B235-0A67A7FBC4DE}" name="Input Values" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{06D4B865-992A-4848-B504-3BE4793F5AA1}" name="Driver Functions" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{72DF2831-A6C8-0C47-A4B5-AECB4AA2CFAF}" name="Expected Outcomes" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{30EFC03E-F14F-C64C-A45D-4A0955280E5F}" name="Observed Outcomes" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{746E146B-0052-854D-908B-92029FDFB4AB}" name="Test Case" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{EE6242AD-F31F-EC43-B235-0A67A7FBC4DE}" name="Input Value(s)" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{06D4B865-992A-4848-B504-3BE4793F5AA1}" name="Driver Functions" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{72DF2831-A6C8-0C47-A4B5-AECB4AA2CFAF}" name="Expected Outcome(s)" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{30EFC03E-F14F-C64C-A45D-4A0955280E5F}" name="Observed Outcome(s)" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{4E56B944-153E-A64A-9DBA-912BA146247B}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{391D68CC-CA3E-7D45-9E84-E245A5A11B9E}" name="Observed Outcome(s) with Bug Fixes" dataDxfId="4">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -645,390 +966,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04431965-2B41-9E49-B5B7-8625799C189D}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:7" ht="34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="68">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="68">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="68">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="68">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="68">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="68">
-      <c r="A2" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="68">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="68">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="68">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="85">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="85">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="85">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="85">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="68">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="68">
-      <c r="A4" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="85">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="68">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="68">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="68">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="68">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="68">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="68">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="68">
-      <c r="A11" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="85">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="85">
-      <c r="A15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="85">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="102">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="85">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="102">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="136">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="136">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="153">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="153">
+      <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="153">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="68">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="68">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="102">
+      <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="153">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="187">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="68">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="187">
-      <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="68">
-      <c r="A22" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="85">
+      <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="68">
-      <c r="A23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="68">
-      <c r="A24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="68">
-      <c r="A25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="85">
-      <c r="A26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>5</v>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="153">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>IF(Table1[[#This Row],[Expected Outcome(s)]]=Table1[[#This Row],[Observed Outcome(s)]], "N/A", "")</f>
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+      <formula>D2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="notEqual">
+      <formula>D2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E15 E18:E27">
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="equal">
+      <formula>D3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="notEqual">
+      <formula>D3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>D16</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="notEqual">
+      <formula>D16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>D17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="notEqual">
+      <formula>D17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>D28</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="notEqual">
+      <formula>D28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>D2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>D3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
